--- a/101_104/Протокол 101_104 v1.0 АВАНТ61850.xlsx
+++ b/101_104/Протокол 101_104 v1.0 АВАНТ61850.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="229">
   <si>
     <t>Сигнализация "Предупреждение"</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>Положение ключей передатчика</t>
+  </si>
+  <si>
+    <t>Значения</t>
+  </si>
+  <si>
+    <t>0 - выведено, 1 - работа</t>
+  </si>
+  <si>
+    <t>0 - нет,  1 - срабатывание</t>
   </si>
 </sst>
 </file>
@@ -806,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -846,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1165,23 +1178,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="29" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="4" width="40.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1191,17 +1204,21 @@
       <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="D1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
@@ -1211,31 +1228,38 @@
       <c r="C3" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="20"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2000</v>
       </c>
@@ -1245,9 +1269,12 @@
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A14" si="0">A7+1</f>
         <v>2001</v>
@@ -1258,9 +1285,12 @@
       <c r="C8" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -1271,9 +1301,12 @@
       <c r="C9" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -1284,9 +1317,12 @@
       <c r="C10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -1297,9 +1333,12 @@
       <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -1310,9 +1349,12 @@
       <c r="C12" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -1323,9 +1365,12 @@
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -1336,9 +1381,12 @@
       <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>A14+1</f>
         <v>2008</v>
@@ -1349,9 +1397,12 @@
       <c r="C15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>A15+1</f>
         <v>2009</v>
@@ -1362,17 +1413,21 @@
       <c r="C16" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="D16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="21"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2100</v>
       </c>
@@ -1382,9 +1437,12 @@
       <c r="C18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>A18+1</f>
         <v>2101</v>
@@ -1395,9 +1453,12 @@
       <c r="C19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>A19+1</f>
         <v>2102</v>
@@ -1408,9 +1469,12 @@
       <c r="C20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" ref="A21:A50" si="1">A20+1</f>
         <v>2103</v>
@@ -1421,9 +1485,12 @@
       <c r="C21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>2104</v>
@@ -1434,9 +1501,12 @@
       <c r="C22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>2105</v>
@@ -1447,9 +1517,12 @@
       <c r="C23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>2106</v>
@@ -1460,9 +1533,12 @@
       <c r="C24" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>2107</v>
@@ -1473,9 +1549,12 @@
       <c r="C25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>2108</v>
@@ -1486,9 +1565,12 @@
       <c r="C26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>2109</v>
@@ -1499,9 +1581,12 @@
       <c r="C27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>2110</v>
@@ -1512,9 +1597,12 @@
       <c r="C28" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>2111</v>
@@ -1525,9 +1613,12 @@
       <c r="C29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
         <v>2112</v>
@@ -1538,9 +1629,12 @@
       <c r="C30" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
         <v>2113</v>
@@ -1551,9 +1645,12 @@
       <c r="C31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
         <v>2114</v>
@@ -1564,9 +1661,12 @@
       <c r="C32" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
         <v>2115</v>
@@ -1577,9 +1677,12 @@
       <c r="C33" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
         <v>2116</v>
@@ -1590,9 +1693,12 @@
       <c r="C34" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>2117</v>
@@ -1603,9 +1709,12 @@
       <c r="C35" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>2118</v>
@@ -1616,9 +1725,12 @@
       <c r="C36" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>2119</v>
@@ -1629,9 +1741,12 @@
       <c r="C37" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>2120</v>
@@ -1642,9 +1757,12 @@
       <c r="C38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>2121</v>
@@ -1655,9 +1773,12 @@
       <c r="C39" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>2122</v>
@@ -1668,9 +1789,12 @@
       <c r="C40" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>2123</v>
@@ -1681,9 +1805,12 @@
       <c r="C41" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>2124</v>
@@ -1694,9 +1821,12 @@
       <c r="C42" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>2125</v>
@@ -1707,9 +1837,12 @@
       <c r="C43" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>2126</v>
@@ -1720,9 +1853,12 @@
       <c r="C44" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>2127</v>
@@ -1733,9 +1869,12 @@
       <c r="C45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>2128</v>
@@ -1746,9 +1885,12 @@
       <c r="C46" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>2129</v>
@@ -1759,9 +1901,12 @@
       <c r="C47" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>2130</v>
@@ -1772,9 +1917,12 @@
       <c r="C48" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
         <v>2131</v>
@@ -1785,9 +1933,12 @@
       <c r="C49" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
         <v>2132</v>
@@ -1798,17 +1949,21 @@
       <c r="C50" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="D50" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="23"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="24"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2200</v>
       </c>
@@ -1818,17 +1973,21 @@
       <c r="C52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="D52" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="24"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2301</v>
       </c>
@@ -1838,9 +1997,12 @@
       <c r="C54" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f>A54+1</f>
         <v>2302</v>
@@ -1851,9 +2013,12 @@
       <c r="C55" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" ref="A56:A84" si="2">A55+1</f>
         <v>2303</v>
@@ -1864,9 +2029,12 @@
       <c r="C56" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f t="shared" si="2"/>
         <v>2304</v>
@@ -1877,9 +2045,12 @@
       <c r="C57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f t="shared" si="2"/>
         <v>2305</v>
@@ -1890,9 +2061,12 @@
       <c r="C58" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" si="2"/>
         <v>2306</v>
@@ -1903,9 +2077,12 @@
       <c r="C59" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <f t="shared" si="2"/>
         <v>2307</v>
@@ -1916,9 +2093,12 @@
       <c r="C60" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <f t="shared" si="2"/>
         <v>2308</v>
@@ -1929,9 +2109,12 @@
       <c r="C61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <f t="shared" si="2"/>
         <v>2309</v>
@@ -1942,9 +2125,12 @@
       <c r="C62" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <f t="shared" si="2"/>
         <v>2310</v>
@@ -1955,9 +2141,12 @@
       <c r="C63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <f t="shared" si="2"/>
         <v>2311</v>
@@ -1968,9 +2157,12 @@
       <c r="C64" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <f t="shared" si="2"/>
         <v>2312</v>
@@ -1981,9 +2173,12 @@
       <c r="C65" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f t="shared" si="2"/>
         <v>2313</v>
@@ -1994,9 +2189,12 @@
       <c r="C66" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" si="2"/>
         <v>2314</v>
@@ -2007,9 +2205,12 @@
       <c r="C67" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="2"/>
         <v>2315</v>
@@ -2020,9 +2221,12 @@
       <c r="C68" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="2"/>
         <v>2316</v>
@@ -2033,9 +2237,12 @@
       <c r="C69" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="2"/>
         <v>2317</v>
@@ -2046,9 +2253,12 @@
       <c r="C70" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="2"/>
         <v>2318</v>
@@ -2059,9 +2269,12 @@
       <c r="C71" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="2"/>
         <v>2319</v>
@@ -2072,9 +2285,12 @@
       <c r="C72" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="2"/>
         <v>2320</v>
@@ -2085,9 +2301,12 @@
       <c r="C73" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="2"/>
         <v>2321</v>
@@ -2098,9 +2317,12 @@
       <c r="C74" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" si="2"/>
         <v>2322</v>
@@ -2111,9 +2333,12 @@
       <c r="C75" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" si="2"/>
         <v>2323</v>
@@ -2124,9 +2349,12 @@
       <c r="C76" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" si="2"/>
         <v>2324</v>
@@ -2137,9 +2365,12 @@
       <c r="C77" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f t="shared" si="2"/>
         <v>2325</v>
@@ -2150,9 +2381,12 @@
       <c r="C78" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <f t="shared" si="2"/>
         <v>2326</v>
@@ -2163,9 +2397,12 @@
       <c r="C79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" si="2"/>
         <v>2327</v>
@@ -2176,9 +2413,12 @@
       <c r="C80" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" si="2"/>
         <v>2328</v>
@@ -2189,9 +2429,12 @@
       <c r="C81" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" si="2"/>
         <v>2329</v>
@@ -2202,9 +2445,12 @@
       <c r="C82" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <f t="shared" si="2"/>
         <v>2330</v>
@@ -2215,9 +2461,12 @@
       <c r="C83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <f t="shared" si="2"/>
         <v>2331</v>
@@ -2228,9 +2477,12 @@
       <c r="C84" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <f>A84+1</f>
         <v>2332</v>
@@ -2241,17 +2493,21 @@
       <c r="C85" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
+      <c r="D85" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="22"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="24"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>2401</v>
       </c>
@@ -2261,9 +2517,12 @@
       <c r="C87" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <f>A87+1</f>
         <v>2402</v>
@@ -2274,9 +2533,12 @@
       <c r="C88" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <f t="shared" ref="A89:A118" si="3">A88+1</f>
         <v>2403</v>
@@ -2287,9 +2549,12 @@
       <c r="C89" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <f t="shared" si="3"/>
         <v>2404</v>
@@ -2300,9 +2565,12 @@
       <c r="C90" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <f t="shared" si="3"/>
         <v>2405</v>
@@ -2313,9 +2581,12 @@
       <c r="C91" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <f t="shared" si="3"/>
         <v>2406</v>
@@ -2326,9 +2597,12 @@
       <c r="C92" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
         <v>2407</v>
@@ -2339,9 +2613,12 @@
       <c r="C93" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
         <v>2408</v>
@@ -2352,9 +2629,12 @@
       <c r="C94" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
         <v>2409</v>
@@ -2365,9 +2645,12 @@
       <c r="C95" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
         <v>2410</v>
@@ -2378,9 +2661,12 @@
       <c r="C96" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
         <v>2411</v>
@@ -2391,9 +2677,12 @@
       <c r="C97" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
         <v>2412</v>
@@ -2404,9 +2693,12 @@
       <c r="C98" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
         <v>2413</v>
@@ -2417,9 +2709,12 @@
       <c r="C99" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
         <v>2414</v>
@@ -2430,9 +2725,12 @@
       <c r="C100" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <f t="shared" si="3"/>
         <v>2415</v>
@@ -2443,9 +2741,12 @@
       <c r="C101" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
         <v>2416</v>
@@ -2456,9 +2757,12 @@
       <c r="C102" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
         <v>2417</v>
@@ -2469,9 +2773,12 @@
       <c r="C103" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
         <v>2418</v>
@@ -2482,9 +2789,12 @@
       <c r="C104" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
         <v>2419</v>
@@ -2495,9 +2805,12 @@
       <c r="C105" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <f t="shared" si="3"/>
         <v>2420</v>
@@ -2508,9 +2821,12 @@
       <c r="C106" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <f t="shared" si="3"/>
         <v>2421</v>
@@ -2521,9 +2837,12 @@
       <c r="C107" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <f t="shared" si="3"/>
         <v>2422</v>
@@ -2534,9 +2853,12 @@
       <c r="C108" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <f t="shared" si="3"/>
         <v>2423</v>
@@ -2547,9 +2869,12 @@
       <c r="C109" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <f t="shared" si="3"/>
         <v>2424</v>
@@ -2560,9 +2885,12 @@
       <c r="C110" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <f t="shared" si="3"/>
         <v>2425</v>
@@ -2573,9 +2901,12 @@
       <c r="C111" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <f t="shared" si="3"/>
         <v>2426</v>
@@ -2586,9 +2917,12 @@
       <c r="C112" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <f t="shared" si="3"/>
         <v>2427</v>
@@ -2599,9 +2933,12 @@
       <c r="C113" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <f t="shared" si="3"/>
         <v>2428</v>
@@ -2612,9 +2949,12 @@
       <c r="C114" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <f t="shared" si="3"/>
         <v>2429</v>
@@ -2625,9 +2965,12 @@
       <c r="C115" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <f t="shared" si="3"/>
         <v>2430</v>
@@ -2638,9 +2981,12 @@
       <c r="C116" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <f t="shared" si="3"/>
         <v>2431</v>
@@ -2651,9 +2997,12 @@
       <c r="C117" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <f t="shared" si="3"/>
         <v>2432</v>
@@ -2664,23 +3013,27 @@
       <c r="C118" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="8"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="8"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A86:D86"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
